--- a/datos_fbref/RESUMEN_STATS_Champions_League.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Champions_League.xlsx
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
